--- a/joins.xlsx
+++ b/joins.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Databases\SQLserver\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EC1367-5253-478E-8157-2835E468DAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
     <definedName name="ExternalData_2" localSheetId="3" hidden="1">Sheet3!$F$7:$F$16</definedName>
     <definedName name="ExternalData_2" localSheetId="1" hidden="1">Sheet5!$I$7:$I$12</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,33 +39,33 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="MySQL.demodb.categories" description="Created by MySQL for Excel, for its internal use only." type="5" refreshedVersion="0" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="MySQL.demodb.categories" description="Created by MySQL for Excel, for its internal use only." type="5" refreshedVersion="0" saveData="1">
     <dbPr connection="Driver={MySQL ODBC 5.3 ANSI Driver};Provider=MSDASQL;Server=localhost;Port=3306;Database=demodb;User=root;Option=3;" command="SELECT * FROM demodb.categories" commandType="4"/>
   </connection>
-  <connection id="2" keepAlive="1" name="MySQL.demodb.categories.2" description="Created by MySQL for Excel, for its internal use only." type="5" refreshedVersion="0" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" keepAlive="1" name="MySQL.demodb.categories.2" description="Created by MySQL for Excel, for its internal use only." type="5" refreshedVersion="0" saveData="1">
     <dbPr connection="Driver={MySQL ODBC 5.3 ANSI Driver};Provider=MSDASQL;Server=localhost;Port=3306;Database=demodb;User=root;Option=3;" command="SELECT * FROM demodb.categories" commandType="4"/>
   </connection>
-  <connection id="3" keepAlive="1" name="MySQL.demodb.categories.21" description="Created by MySQL for Excel, for its internal use only." type="5" refreshedVersion="0" saveData="1">
+  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" keepAlive="1" name="MySQL.demodb.categories.21" description="Created by MySQL for Excel, for its internal use only." type="5" refreshedVersion="0" saveData="1">
     <dbPr connection="Driver={MySQL ODBC 5.3 ANSI Driver};Provider=MSDASQL;Server=localhost;Port=3306;Database=demodb;User=root;Option=3;" command="SELECT * FROM demodb.categories" commandType="4"/>
   </connection>
-  <connection id="4" keepAlive="1" name="MySQL.demodb.products" description="Created by MySQL for Excel, for its internal use only." type="5" refreshedVersion="0" saveData="1">
+  <connection id="4" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" keepAlive="1" name="MySQL.demodb.products" description="Created by MySQL for Excel, for its internal use only." type="5" refreshedVersion="0" saveData="1">
     <dbPr connection="Driver={MySQL ODBC 5.3 ANSI Driver};Provider=MSDASQL;Server=localhost;Port=3306;Database=demodb;User=root;Option=3;" command="SELECT * FROM demodb.products" commandType="4"/>
   </connection>
-  <connection id="5" keepAlive="1" name="MySQL.demodb.products.2" description="Created by MySQL for Excel, for its internal use only." type="5" refreshedVersion="0" saveData="1">
+  <connection id="5" xr16:uid="{00000000-0015-0000-FFFF-FFFF04000000}" keepAlive="1" name="MySQL.demodb.products.2" description="Created by MySQL for Excel, for its internal use only." type="5" refreshedVersion="0" saveData="1">
     <dbPr connection="Driver={MySQL ODBC 5.3 ANSI Driver};Provider=MSDASQL;Server=localhost;Port=3306;Database=demodb;User=root;Option=3;" command="SELECT * FROM demodb.products" commandType="4"/>
   </connection>
-  <connection id="6" keepAlive="1" name="MySQL.mydatabase.categories" description="Created by MySQL for Excel, for its internal use only." type="5" refreshedVersion="0" saveData="1">
+  <connection id="6" xr16:uid="{00000000-0015-0000-FFFF-FFFF05000000}" keepAlive="1" name="MySQL.mydatabase.categories" description="Created by MySQL for Excel, for its internal use only." type="5" refreshedVersion="0" saveData="1">
     <dbPr connection="Driver={MySQL ODBC 5.3 ANSI Driver};Provider=MSDASQL;Server=localhost;Port=3306;Database=mydatabase;User=root;Option=3;" command="SELECT * FROM mydatabase.categories" commandType="4"/>
   </connection>
-  <connection id="7" keepAlive="1" name="MySQL.mydatabase.products" description="Created by MySQL for Excel, for its internal use only." type="5" refreshedVersion="0" saveData="1">
+  <connection id="7" xr16:uid="{00000000-0015-0000-FFFF-FFFF06000000}" keepAlive="1" name="MySQL.mydatabase.products" description="Created by MySQL for Excel, for its internal use only." type="5" refreshedVersion="0" saveData="1">
     <dbPr connection="Driver={MySQL ODBC 5.3 ANSI Driver};Provider=MSDASQL;Server=localhost;Port=3306;Database=mydatabase;User=root;Option=3;" command="SELECT * FROM mydatabase.products" commandType="4"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="116">
   <si>
     <t>categories</t>
   </si>
@@ -394,12 +395,30 @@
   </si>
   <si>
     <t>7.Universal - Intersection</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>fast food</t>
+  </si>
+  <si>
+    <t>Burger</t>
+  </si>
+  <si>
+    <t>AkM</t>
+  </si>
+  <si>
+    <t>denim shirt</t>
+  </si>
+  <si>
+    <t>levis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -640,7 +659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -651,13 +670,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -666,28 +681,25 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -709,18 +721,16 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1158,7 +1168,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="42"/>
       <tableStyleElement type="headerRow" dxfId="41"/>
     </tableStyle>
@@ -1175,7 +1185,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" backgroundRefresh="0" intermediate="1" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" backgroundRefresh="0" intermediate="1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4" unboundColumnsRight="2">
     <queryTableFields count="3">
       <queryTableField id="1" name="ExternalData_1: Getting Data ..." tableColumnId="1"/>
@@ -1187,7 +1197,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" backgroundRefresh="0" intermediate="1" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_2" backgroundRefresh="0" intermediate="1" connectionId="4" xr16:uid="{00000000-0016-0000-0000-000001000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="5" unboundColumnsRight="3">
     <queryTableFields count="4">
       <queryTableField id="1" name="ExternalData_2: Getting Data ..." tableColumnId="1"/>
@@ -1200,7 +1210,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" backgroundRefresh="0" intermediate="1" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" backgroundRefresh="0" intermediate="1" connectionId="6" xr16:uid="{00000000-0016-0000-0100-000002000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4" unboundColumnsRight="2">
     <queryTableFields count="3">
       <queryTableField id="1" name="ExternalData_1: Getting Data ..." tableColumnId="1"/>
@@ -1212,7 +1222,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" backgroundRefresh="0" intermediate="1" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_2" backgroundRefresh="0" intermediate="1" connectionId="7" xr16:uid="{00000000-0016-0000-0100-000003000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="5" unboundColumnsRight="3">
     <queryTableFields count="4">
       <queryTableField id="1" name="ExternalData_2: Getting Data ..." tableColumnId="1"/>
@@ -1225,7 +1235,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" backgroundRefresh="0" intermediate="1" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" backgroundRefresh="0" intermediate="1" connectionId="2" xr16:uid="{00000000-0016-0000-0300-000004000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4" unboundColumnsRight="2">
     <queryTableFields count="3">
       <queryTableField id="1" name="ExternalData_1: Getting Data ..." tableColumnId="1"/>
@@ -1237,7 +1247,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" backgroundRefresh="0" intermediate="1" connectionId="5" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_2" backgroundRefresh="0" intermediate="1" connectionId="5" xr16:uid="{00000000-0016-0000-0300-000005000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="10" unboundColumnsRight="7">
     <queryTableFields count="8">
       <queryTableField id="1" name="ExternalData_2: Getting Data ..." tableColumnId="1"/>
@@ -1254,7 +1264,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" backgroundRefresh="0" intermediate="1" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" backgroundRefresh="0" intermediate="1" connectionId="3" xr16:uid="{00000000-0016-0000-0400-000006000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4" unboundColumnsRight="2">
     <queryTableFields count="3">
       <queryTableField id="1" name="ExternalData_1: Getting Data ..." tableColumnId="1"/>
@@ -1266,132 +1276,132 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="demodb.categories" displayName="demodb.categories" comment="92ae01bf-4ebf-44b3-9b7a-e91a65c1f554" ref="F10:H14" tableType="queryTable" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37" totalsRowBorderDxfId="36">
-  <autoFilter ref="F10:H14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="demodb.categories" displayName="demodb.categories" comment="92ae01bf-4ebf-44b3-9b7a-e91a65c1f554" ref="F10:H14" tableType="queryTable" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+  <autoFilter ref="F10:H14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="categoryid" queryTableFieldId="1" dataDxfId="35"/>
-    <tableColumn id="2" uniqueName="2" name="category_name" queryTableFieldId="2" dataDxfId="34"/>
-    <tableColumn id="3" uniqueName="3" name="abcd" queryTableFieldId="3" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="categoryid" queryTableFieldId="1" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="category_name" queryTableFieldId="2" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="abcd" queryTableFieldId="3" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="MySqlDefault" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="G7:J14" totalsRowShown="0">
-  <autoFilter ref="G7:J14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table9" displayName="Table9" ref="G7:J14" totalsRowShown="0">
+  <autoFilter ref="G7:J14" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="category_id" dataDxfId="2"/>
-    <tableColumn id="2" name="product_id" dataDxfId="1"/>
-    <tableColumn id="3" name="product_name"/>
-    <tableColumn id="4" name="price" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="category_id" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="product_id" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="product_name"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="price" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="demodb.products" displayName="demodb.products" comment="49a6a022-ae64-4b10-bbb6-39d0c881f332" ref="J10:M16" tableType="queryTable" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29" totalsRowBorderDxfId="28">
-  <autoFilter ref="J10:M16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="demodb.products" displayName="demodb.products" comment="49a6a022-ae64-4b10-bbb6-39d0c881f332" ref="J10:M16" tableType="queryTable" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29" totalsRowBorderDxfId="28">
+  <autoFilter ref="J10:M16" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" uniqueName="1" name="product_id" queryTableFieldId="1" dataDxfId="27"/>
-    <tableColumn id="2" uniqueName="2" name="catid" queryTableFieldId="2" dataDxfId="26"/>
-    <tableColumn id="3" uniqueName="3" name="product_name" queryTableFieldId="3" dataDxfId="25"/>
-    <tableColumn id="4" uniqueName="4" name="xyz" queryTableFieldId="4" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" uniqueName="1" name="product_id" queryTableFieldId="1" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" uniqueName="2" name="catid" queryTableFieldId="2" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" uniqueName="3" name="product_name" queryTableFieldId="3" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" uniqueName="4" name="xyz" queryTableFieldId="4" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="MySqlDefault" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="mydatabase.categories" displayName="mydatabase.categories" comment="57f036d9-a505-46d5-b7ab-47d838403011" ref="E7:G10" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="E7:G10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="mydatabase.categories" displayName="mydatabase.categories" comment="57f036d9-a505-46d5-b7ab-47d838403011" ref="E7:G10" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="E7:G10" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="categoryid" queryTableFieldId="1" dataDxfId="23"/>
-    <tableColumn id="2" uniqueName="2" name="category_name" queryTableFieldId="2" dataDxfId="22"/>
-    <tableColumn id="3" uniqueName="3" name="abcd" queryTableFieldId="3" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="categoryid" queryTableFieldId="1" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" uniqueName="2" name="category_name" queryTableFieldId="2" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" uniqueName="3" name="abcd" queryTableFieldId="3" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="MySqlDefault" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="mydatabase.products" displayName="mydatabase.products" comment="ecd2358c-b5e6-46e2-9b51-8b2eddb73388" ref="I7:L12" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="I7:L12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="mydatabase.products" displayName="mydatabase.products" comment="ecd2358c-b5e6-46e2-9b51-8b2eddb73388" ref="I7:L12" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="I7:L12" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" uniqueName="1" name="product_id" queryTableFieldId="1" dataDxfId="20"/>
-    <tableColumn id="2" uniqueName="2" name="categoryid" queryTableFieldId="2" dataDxfId="19"/>
-    <tableColumn id="3" uniqueName="3" name="product_name" queryTableFieldId="3" dataDxfId="18"/>
-    <tableColumn id="4" uniqueName="4" name="xyz" queryTableFieldId="4" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" uniqueName="1" name="product_id" queryTableFieldId="1" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" uniqueName="2" name="categoryid" queryTableFieldId="2" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" uniqueName="3" name="product_name" queryTableFieldId="3" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" uniqueName="4" name="xyz" queryTableFieldId="4" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="MySqlDefault" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="demodb.categories.2" displayName="demodb.categories.2" comment="73d41844-0bbd-4b52-ad39-ad7c6ef5b22f" ref="B7:D13" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="B7:D13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="demodb.categories.2" displayName="demodb.categories.2" comment="73d41844-0bbd-4b52-ad39-ad7c6ef5b22f" ref="B7:D13" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="B7:D13" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="categoryid" queryTableFieldId="1" dataDxfId="16"/>
-    <tableColumn id="2" uniqueName="2" name="category_name" queryTableFieldId="2" dataDxfId="15"/>
-    <tableColumn id="3" uniqueName="3" name="abcd" queryTableFieldId="3" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" uniqueName="1" name="categoryid" queryTableFieldId="1" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" uniqueName="2" name="category_name" queryTableFieldId="2" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" uniqueName="3" name="abcd" queryTableFieldId="3" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="MySqlDefault" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="demodb.products.2" displayName="demodb.products.2" comment="94bf9c4f-6524-42d8-96a1-dbd4d9bc2b31" ref="F7:M16" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="F7:M16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="demodb.products.2" displayName="demodb.products.2" comment="94bf9c4f-6524-42d8-96a1-dbd4d9bc2b31" ref="F7:M16" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="F7:M16" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" uniqueName="1" name="product_id" queryTableFieldId="1" dataDxfId="13"/>
-    <tableColumn id="2" uniqueName="2" name="catid" queryTableFieldId="2" dataDxfId="12"/>
-    <tableColumn id="3" uniqueName="3" name="product_name" queryTableFieldId="3" dataDxfId="11"/>
-    <tableColumn id="5" uniqueName="5" name="Price" queryTableFieldId="5" dataDxfId="10"/>
-    <tableColumn id="6" uniqueName="6" name="sum" queryTableFieldId="6" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" uniqueName="1" name="product_id" queryTableFieldId="1" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" uniqueName="2" name="catid" queryTableFieldId="2" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" uniqueName="3" name="product_name" queryTableFieldId="3" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" uniqueName="5" name="Price" queryTableFieldId="5" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" uniqueName="6" name="sum" queryTableFieldId="6" dataDxfId="9">
       <calculatedColumnFormula>SUM(I8:I9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" uniqueName="7" name="avg" queryTableFieldId="7" dataDxfId="8"/>
-    <tableColumn id="8" uniqueName="8" name="min" queryTableFieldId="8" dataDxfId="7"/>
-    <tableColumn id="9" uniqueName="9" name="max" queryTableFieldId="9" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" uniqueName="7" name="avg" queryTableFieldId="7" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" uniqueName="8" name="min" queryTableFieldId="8" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" uniqueName="9" name="max" queryTableFieldId="9" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="MySqlDefault" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="O7:R11" totalsRowShown="0">
-  <autoFilter ref="O7:R11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table5" displayName="Table5" ref="O7:R11" totalsRowShown="0">
+  <autoFilter ref="O7:R11" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="userid"/>
-    <tableColumn id="2" name="username"/>
-    <tableColumn id="3" name="password"/>
-    <tableColumn id="4" name="productid"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="userid"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="username"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="password"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="productid"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="demodb.categories.29" displayName="demodb.categories.29" comment="73d41844-0bbd-4b52-ad39-ad7c6ef5b22f" ref="B7:D13" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="B7:D13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="demodb.categories.29" displayName="demodb.categories.29" comment="73d41844-0bbd-4b52-ad39-ad7c6ef5b22f" ref="B7:D13" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="B7:D13" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="category_id" queryTableFieldId="1" dataDxfId="5"/>
-    <tableColumn id="2" uniqueName="2" name="category_name" queryTableFieldId="2" dataDxfId="4"/>
-    <tableColumn id="3" uniqueName="3" name="description" queryTableFieldId="3" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" uniqueName="1" name="category_id" queryTableFieldId="1" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" uniqueName="2" name="category_name" queryTableFieldId="2" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" uniqueName="3" name="description" queryTableFieldId="3" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="MySqlDefault" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table511" displayName="Table511" ref="L7:O11" totalsRowShown="0">
-  <autoFilter ref="L7:O11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table511" displayName="Table511" ref="L7:O11" totalsRowShown="0">
+  <autoFilter ref="L7:O11" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="userid"/>
-    <tableColumn id="2" name="username"/>
-    <tableColumn id="3" name="password"/>
-    <tableColumn id="4" name="productid"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="userid"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="username"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="password"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="productid"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1693,7 +1703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D5:U30"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" zoomScale="94" workbookViewId="0">
@@ -1736,26 +1746,26 @@
       </c>
     </row>
     <row r="9" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="F9" s="49" t="s">
+      <c r="F9" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="J9" s="49" t="s">
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="J9" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
     </row>
     <row r="10" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="10" t="s">
         <v>3</v>
       </c>
       <c r="J10" s="7" t="s">
@@ -1764,130 +1774,130 @@
       <c r="K10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="M10" s="13" t="s">
+      <c r="M10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="O10" s="21" t="s">
+      <c r="O10" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="P10" s="22" t="s">
+      <c r="P10" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="Q10" s="22" t="s">
+      <c r="Q10" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="R10" s="23" t="s">
+      <c r="R10" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="S10" s="24" t="s">
+      <c r="S10" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="T10" s="22" t="s">
+      <c r="T10" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="U10" s="22" t="s">
+      <c r="U10" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="11" t="s">
         <v>23</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="L11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="M11" s="14" t="s">
+      <c r="M11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="O11" s="17" t="s">
+      <c r="O11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="P11" s="12" t="s">
+      <c r="P11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="Q11" s="12" t="s">
+      <c r="Q11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="R11" s="25" t="s">
+      <c r="R11" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="S11" s="18" t="s">
+      <c r="S11" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="T11" s="12" t="s">
+      <c r="T11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="U11" s="12" t="s">
+      <c r="U11" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="11" t="s">
         <v>23</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="K12" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="14" t="s">
+      <c r="L12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="14" t="s">
+      <c r="M12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="O12" s="17" t="s">
+      <c r="O12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="P12" s="12" t="s">
+      <c r="P12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="Q12" s="12" t="s">
+      <c r="Q12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="R12" s="26" t="s">
+      <c r="R12" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="S12" s="18" t="s">
+      <c r="S12" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="T12" s="12" t="s">
+      <c r="T12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="U12" s="12" t="s">
+      <c r="U12" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I13" t="s">
@@ -1896,153 +1906,153 @@
       <c r="J13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="18" t="s">
+      <c r="K13" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="L13" s="14" t="s">
+      <c r="L13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="M13" s="14" t="s">
+      <c r="M13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="O13" s="17" t="s">
+      <c r="O13" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="P13" s="12" t="s">
+      <c r="P13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q13" s="12" t="s">
+      <c r="Q13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="R13" s="26" t="s">
+      <c r="R13" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="S13" s="18" t="s">
+      <c r="S13" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="T13" s="12" t="s">
+      <c r="T13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="U13" s="12" t="s">
+      <c r="U13" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="29" t="s">
+      <c r="H14" s="23" t="s">
         <v>49</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K14" s="18" t="s">
+      <c r="K14" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="L14" s="14" t="s">
+      <c r="L14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="M14" s="14" t="s">
+      <c r="M14" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="O14" s="17" t="s">
+      <c r="O14" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="P14" s="12" t="s">
+      <c r="P14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q14" s="12" t="s">
+      <c r="Q14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="R14" s="26" t="s">
+      <c r="R14" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="S14" s="18" t="s">
+      <c r="S14" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="T14" s="12" t="s">
+      <c r="T14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="U14" s="12" t="s">
+      <c r="U14" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
       <c r="J15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="18" t="s">
+      <c r="K15" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="L15" s="14" t="s">
+      <c r="L15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="M15" s="14" t="s">
+      <c r="M15" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="O15" s="17" t="s">
+      <c r="O15" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="P15" s="12" t="s">
+      <c r="P15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="Q15" s="12" t="s">
+      <c r="Q15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="R15" s="25" t="s">
+      <c r="R15" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="S15" s="18" t="s">
+      <c r="S15" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="T15" s="12" t="s">
+      <c r="T15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="U15" s="12" t="s">
+      <c r="U15" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="J16" s="19" t="s">
+      <c r="F16" s="2"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="J16" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K16" s="15">
         <v>104</v>
       </c>
-      <c r="L16" s="20" t="s">
+      <c r="L16" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="M16" s="20" t="s">
+      <c r="M16" s="16" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="J17" s="15"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="J17" s="12"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
     </row>
     <row r="18" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F18" s="10"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="J18" s="15"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="J18" s="12"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
     </row>
     <row r="23" spans="6:15" x14ac:dyDescent="0.3">
       <c r="L23" t="s">
@@ -2059,7 +2069,7 @@
       <c r="H25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I25" s="48" t="s">
+      <c r="I25" s="39" t="s">
         <v>42</v>
       </c>
       <c r="J25" s="1" t="s">
@@ -2125,44 +2135,44 @@
       </c>
     </row>
     <row r="28" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="L28" s="16" t="s">
+      <c r="L28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M28" s="16">
+      <c r="M28" s="1">
         <v>2</v>
       </c>
-      <c r="N28" s="16" t="s">
+      <c r="N28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O28" s="16" t="s">
+      <c r="O28" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="29" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="L29" s="16" t="s">
+      <c r="L29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M29" s="16">
+      <c r="M29" s="1">
         <v>2</v>
       </c>
-      <c r="N29" s="16" t="s">
+      <c r="N29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O29" s="16" t="s">
+      <c r="O29" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="30" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="L30" s="16" t="s">
+      <c r="L30" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M30" s="16">
+      <c r="M30" s="1">
         <v>2</v>
       </c>
-      <c r="N30" s="16" t="s">
+      <c r="N30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O30" s="16" t="s">
+      <c r="O30" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2182,7 +2192,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="E7:L12"/>
   <sheetViews>
     <sheetView zoomScale="133" workbookViewId="0">
@@ -2331,7 +2341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="F8:L31"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="D1" zoomScale="158" workbookViewId="0">
@@ -2349,14 +2359,14 @@
   </cols>
   <sheetData>
     <row r="8" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
     </row>
     <row r="9" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G9" s="1" t="s">
@@ -2576,7 +2586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:R26"/>
   <sheetViews>
     <sheetView zoomScale="102" zoomScaleNormal="130" workbookViewId="0">
@@ -2613,22 +2623,22 @@
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="F6" s="50" t="s">
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="F6" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="O6" s="50" t="s">
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="O6" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
     </row>
     <row r="7" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
@@ -2678,7 +2688,7 @@
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="25" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -2687,23 +2697,23 @@
       <c r="D8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="26" t="s">
         <v>28</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="34">
+      <c r="I8" s="27">
         <v>18000</v>
       </c>
-      <c r="J8" s="35"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
       <c r="O8" s="5">
         <v>1</v>
       </c>
@@ -2718,7 +2728,7 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="25" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -2728,33 +2738,33 @@
         <v>23</v>
       </c>
       <c r="E9" s="6"/>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="26" t="s">
         <v>28</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="27">
         <v>8000</v>
       </c>
       <c r="J9" s="6">
         <f>SUM(I8:I9)</f>
         <v>26000</v>
       </c>
-      <c r="K9" s="40" t="s">
+      <c r="K9" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="L9" s="34" t="s">
+      <c r="L9" s="27" t="s">
         <v>81</v>
       </c>
       <c r="M9" s="6">
         <f>MAX(I8:I9)</f>
         <v>18000</v>
       </c>
-      <c r="N9" s="34"/>
+      <c r="N9" s="27"/>
       <c r="O9" s="5">
         <v>2</v>
       </c>
@@ -2769,7 +2779,7 @@
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="25" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -2779,23 +2789,23 @@
         <v>23</v>
       </c>
       <c r="E10" s="6"/>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="26" t="s">
         <v>36</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="34">
+      <c r="I10" s="27">
         <v>5000</v>
       </c>
-      <c r="J10" s="36"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
       <c r="O10" s="5">
         <v>3</v>
       </c>
@@ -2810,7 +2820,7 @@
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="25" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -2820,34 +2830,34 @@
         <v>23</v>
       </c>
       <c r="E11" s="6"/>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="26" t="s">
         <v>36</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="34">
+      <c r="I11" s="27">
         <v>3000</v>
       </c>
-      <c r="J11" s="36">
+      <c r="J11" s="29">
         <v>8000</v>
       </c>
-      <c r="K11" s="41" t="s">
+      <c r="K11" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="L11" s="34" t="s">
+      <c r="L11" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="M11" s="34" t="s">
+      <c r="M11" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="N11" s="34"/>
+      <c r="N11" s="27"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="25" t="s">
         <v>53</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -2857,31 +2867,31 @@
         <v>23</v>
       </c>
       <c r="E12" s="6"/>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="26" t="s">
         <v>34</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="34">
+      <c r="I12" s="27">
         <v>3000</v>
       </c>
-      <c r="J12" s="37">
+      <c r="J12" s="30">
         <v>3000</v>
       </c>
-      <c r="K12" s="42" t="s">
+      <c r="K12" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="L12" s="34" t="s">
+      <c r="L12" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="M12" s="34" t="s">
+      <c r="M12" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="N12" s="34"/>
+      <c r="N12" s="27"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
@@ -2890,53 +2900,53 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="26" t="s">
         <v>64</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I13" s="34">
+      <c r="I13" s="27">
         <v>2000</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
     </row>
     <row r="14" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="32" t="s">
+      <c r="F14" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="G14" s="26" t="s">
         <v>64</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="34">
+      <c r="I14" s="27">
         <v>1090</v>
       </c>
-      <c r="J14" s="38">
+      <c r="J14" s="31">
         <v>3090</v>
       </c>
-      <c r="K14" s="44" t="s">
+      <c r="K14" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="L14" s="34" t="s">
+      <c r="L14" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="M14" s="34" t="s">
+      <c r="M14" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="N14" s="34"/>
+      <c r="N14" s="27"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C15" s="6"/>
@@ -2980,7 +2990,7 @@
       </c>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="F21" s="30"/>
+      <c r="F21" s="24"/>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
@@ -3019,11 +3029,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B3:R65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17:P17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="132" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3060,23 +3070,23 @@
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="G6" s="50" t="s">
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="G6" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="L6" s="50" t="s">
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="L6" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
@@ -3114,7 +3124,7 @@
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="25" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -3132,10 +3142,10 @@
       <c r="I8" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="51">
+      <c r="J8" s="40">
         <v>5600.89</v>
       </c>
-      <c r="K8" s="34"/>
+      <c r="K8" s="27"/>
       <c r="L8" s="5">
         <v>1</v>
       </c>
@@ -3150,7 +3160,7 @@
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="25" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -3168,10 +3178,10 @@
       <c r="I9" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="51">
+      <c r="J9" s="40">
         <v>5006.8900000000003</v>
       </c>
-      <c r="K9" s="34"/>
+      <c r="K9" s="27"/>
       <c r="L9" s="5">
         <v>2</v>
       </c>
@@ -3186,7 +3196,7 @@
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="25" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -3204,10 +3214,10 @@
       <c r="I10" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="51">
+      <c r="J10" s="40">
         <v>5876.89</v>
       </c>
-      <c r="K10" s="34"/>
+      <c r="K10" s="27"/>
       <c r="L10" s="5">
         <v>3</v>
       </c>
@@ -3222,7 +3232,7 @@
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="25" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -3240,13 +3250,13 @@
       <c r="I11" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="51">
+      <c r="J11" s="40">
         <v>59886.89</v>
       </c>
-      <c r="K11" s="34"/>
+      <c r="K11" s="27"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="25" t="s">
         <v>53</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -3262,19 +3272,23 @@
         <v>33</v>
       </c>
       <c r="I12" t="s">
-        <v>98</v>
-      </c>
-      <c r="J12" s="51">
+        <v>113</v>
+      </c>
+      <c r="J12" s="40">
         <v>54446.89</v>
       </c>
-      <c r="K12" s="34"/>
+      <c r="K12" s="27"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="B13" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="G13" s="4" t="s">
         <v>64</v>
       </c>
@@ -3282,12 +3296,12 @@
         <v>50</v>
       </c>
       <c r="I13" t="s">
-        <v>96</v>
-      </c>
-      <c r="J13" s="51">
+        <v>114</v>
+      </c>
+      <c r="J13" s="40">
         <v>5226.8900000000003</v>
       </c>
-      <c r="K13" s="34"/>
+      <c r="K13" s="27"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C14" s="6"/>
@@ -3299,12 +3313,12 @@
         <v>66</v>
       </c>
       <c r="I14" t="s">
-        <v>97</v>
-      </c>
-      <c r="J14" s="51">
+        <v>115</v>
+      </c>
+      <c r="J14" s="40">
         <v>5787876.8899999997</v>
       </c>
-      <c r="K14" s="34"/>
+      <c r="K14" s="27"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C15" s="6"/>
@@ -3315,11 +3329,11 @@
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="12:18" x14ac:dyDescent="0.3">
-      <c r="N17" s="50" t="s">
+      <c r="N17" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
     </row>
     <row r="18" spans="12:18" x14ac:dyDescent="0.3">
       <c r="L18">
@@ -3437,11 +3451,11 @@
       </c>
     </row>
     <row r="24" spans="12:18" x14ac:dyDescent="0.3">
-      <c r="N24" s="50" t="s">
+      <c r="N24" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="O24" s="50"/>
-      <c r="P24" s="50"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
     </row>
     <row r="25" spans="12:18" x14ac:dyDescent="0.3">
       <c r="L25">
@@ -3605,11 +3619,11 @@
       </c>
     </row>
     <row r="33" spans="12:18" x14ac:dyDescent="0.3">
-      <c r="N33" s="50" t="s">
+      <c r="N33" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="O33" s="50"/>
-      <c r="P33" s="50"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="42"/>
     </row>
     <row r="34" spans="12:18" x14ac:dyDescent="0.3">
       <c r="L34">
@@ -3773,11 +3787,11 @@
       </c>
     </row>
     <row r="42" spans="12:18" x14ac:dyDescent="0.3">
-      <c r="N42" s="50" t="s">
+      <c r="N42" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="O42" s="50"/>
-      <c r="P42" s="50"/>
+      <c r="O42" s="42"/>
+      <c r="P42" s="42"/>
     </row>
     <row r="43" spans="12:18" x14ac:dyDescent="0.3">
       <c r="L43">
@@ -3987,11 +4001,11 @@
       </c>
     </row>
     <row r="53" spans="12:18" x14ac:dyDescent="0.3">
-      <c r="N53" s="50" t="s">
+      <c r="N53" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="O53" s="50"/>
-      <c r="P53" s="50"/>
+      <c r="O53" s="42"/>
+      <c r="P53" s="42"/>
     </row>
     <row r="54" spans="12:18" x14ac:dyDescent="0.3">
       <c r="L54">
@@ -4040,11 +4054,11 @@
       </c>
     </row>
     <row r="57" spans="12:18" x14ac:dyDescent="0.3">
-      <c r="N57" s="50" t="s">
+      <c r="N57" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="O57" s="50"/>
-      <c r="P57" s="50"/>
+      <c r="O57" s="42"/>
+      <c r="P57" s="42"/>
     </row>
     <row r="58" spans="12:18" x14ac:dyDescent="0.3">
       <c r="L58" t="s">
@@ -4093,11 +4107,11 @@
       </c>
     </row>
     <row r="61" spans="12:18" x14ac:dyDescent="0.3">
-      <c r="N61" s="50" t="s">
+      <c r="N61" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="O61" s="50"/>
-      <c r="P61" s="50"/>
+      <c r="O61" s="42"/>
+      <c r="P61" s="42"/>
     </row>
     <row r="62" spans="12:18" x14ac:dyDescent="0.3">
       <c r="L62">
@@ -4193,16 +4207,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="N17:P17"/>
     <mergeCell ref="N61:P61"/>
     <mergeCell ref="N24:P24"/>
     <mergeCell ref="N33:P33"/>
     <mergeCell ref="N42:P42"/>
     <mergeCell ref="N53:P53"/>
     <mergeCell ref="N57:P57"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="N17:P17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4215,7 +4229,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="I24:M33"/>
   <sheetViews>
     <sheetView topLeftCell="C17" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -4230,10 +4244,10 @@
   </cols>
   <sheetData>
     <row r="24" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I24" s="45" t="s">
+      <c r="I24" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="J24" s="45" t="s">
+      <c r="J24" s="38" t="s">
         <v>6</v>
       </c>
       <c r="K24" t="s">
@@ -4241,10 +4255,10 @@
       </c>
     </row>
     <row r="25" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I25" s="46" t="s">
+      <c r="I25" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J25" s="47" t="s">
+      <c r="J25" s="6" t="s">
         <v>19</v>
       </c>
       <c r="K25">
@@ -4252,10 +4266,10 @@
       </c>
     </row>
     <row r="26" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I26" s="46" t="s">
+      <c r="I26" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J26" s="47" t="s">
+      <c r="J26" s="6" t="s">
         <v>88</v>
       </c>
       <c r="K26" t="s">
@@ -4266,10 +4280,10 @@
       </c>
     </row>
     <row r="27" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I27" s="46" t="s">
+      <c r="I27" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J27" s="47" t="s">
+      <c r="J27" s="6" t="s">
         <v>20</v>
       </c>
       <c r="K27">
@@ -4280,10 +4294,10 @@
       </c>
     </row>
     <row r="28" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I28" s="46" t="s">
+      <c r="I28" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="J28" s="47" t="s">
+      <c r="J28" s="6" t="s">
         <v>90</v>
       </c>
       <c r="K28" t="s">
@@ -4291,10 +4305,10 @@
       </c>
     </row>
     <row r="29" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I29" s="46" t="s">
+      <c r="I29" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="J29" s="47" t="s">
+      <c r="J29" s="6" t="s">
         <v>24</v>
       </c>
       <c r="K29" t="s">
@@ -4302,10 +4316,10 @@
       </c>
     </row>
     <row r="30" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I30" s="46" t="s">
+      <c r="I30" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="J30" s="47" t="s">
+      <c r="J30" s="6" t="s">
         <v>25</v>
       </c>
       <c r="K30">
@@ -4313,10 +4327,10 @@
       </c>
     </row>
     <row r="31" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I31" s="46" t="s">
+      <c r="I31" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="J31" s="47" t="s">
+      <c r="J31" s="6" t="s">
         <v>26</v>
       </c>
       <c r="K31">
@@ -4324,10 +4338,10 @@
       </c>
     </row>
     <row r="32" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I32" s="46" t="s">
+      <c r="I32" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="J32" s="47" t="s">
+      <c r="J32" s="6" t="s">
         <v>56</v>
       </c>
       <c r="K32">
@@ -4335,10 +4349,10 @@
       </c>
     </row>
     <row r="33" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I33" s="46" t="s">
+      <c r="I33" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="J33" s="47" t="s">
+      <c r="J33" s="6" t="s">
         <v>13</v>
       </c>
       <c r="K33">
